--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity - Copy.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE6EBC-C118-494F-9B1A-DF8E14F24DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A117D3-850B-4743-A777-97FC509443C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>Runmode</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TC25_Verify_product_comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Product comparison </t>
   </si>
 </sst>
 </file>
@@ -772,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1047,78 +1053,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="E15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="E16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>68</v>
@@ -1135,9 +1141,9 @@
         <v>7</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1155,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>68</v>
@@ -1175,50 +1181,50 @@
         <v>7</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>68</v>
@@ -1235,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>68</v>
@@ -1255,10 +1261,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>68</v>
@@ -1274,31 +1280,31 @@
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>68</v>
@@ -1315,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>68</v>
@@ -1334,11 +1340,11 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>22</v>
+      <c r="C28" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>68</v>
@@ -1355,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>68</v>
@@ -1375,63 +1381,83 @@
         <v>7</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="E31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="uniqueValues" dxfId="1" priority="3701"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F24 F26:F31">
+  <conditionalFormatting sqref="F22:F25 F27:F32">
     <cfRule type="uniqueValues" dxfId="0" priority="4611"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity - Copy.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A117D3-850B-4743-A777-97FC509443C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A718C51-7792-4EEB-95A5-DB9BCFD27548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
